--- a/Document/MeetingMinute/27052015.xlsx
+++ b/Document/MeetingMinute/27052015.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CapstoneProject\MeetingMinute\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>thiếu đường Staff qua Project Member
 tách manage ra từng relationship</t>
@@ -76,6 +71,12 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>staff duoc view lai project, assessment cu, 1 ng co the tham gia nhieu du an</t>
   </si>
 </sst>
 </file>
@@ -209,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,7 +433,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,12 +514,16 @@
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/Document/MeetingMinute/27052015.xlsx
+++ b/Document/MeetingMinute/27052015.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>thiếu đường Staff qua Project Member
 tách manage ra từng relationship</t>
@@ -77,6 +77,17 @@
   </si>
   <si>
     <t>staff duoc view lai project, assessment cu, 1 ng co the tham gia nhieu du an</t>
+  </si>
+  <si>
+    <t>đã sửa</t>
+  </si>
+  <si>
+    <t>đã thêm quan hệ 1-n vào
+ERD: các quan hệ có thể hợp lại thì nên hợp =&gt; xài từ manages sẽ giải quyết được việc này.
+Class Diagrams: quan hệ chỉ nên ghi chung chung bởi vì method trong classs đã nói rõ ra nó sẽ làm việc gì.</t>
+  </si>
+  <si>
+    <t>đã thay đổi dtb cho phù hợp.</t>
   </si>
 </sst>
 </file>
@@ -100,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -150,6 +167,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,7 +457,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +506,9 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -494,7 +520,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -504,7 +530,9 @@
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -524,7 +552,9 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
